--- a/ddcc/StructureDefinition-DDCCCoreDataSetVSCoC.xlsx
+++ b/ddcc/StructureDefinition-DDCCCoreDataSetVSCoC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T11:00:36+02:00</t>
+    <t>2024-12-18T16:46:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
